--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1517228.669741563</v>
+        <v>1594236.200337115</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10845185.08591102</v>
+        <v>10685617.02449133</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3132716.879191402</v>
+        <v>3315852.860131507</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9677439.350964341</v>
+        <v>9644292.347223492</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>132.7463809146977</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>185.1750111745191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>413.3309011210951</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>134.4566669891818</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.0057500540394</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>136.2884916812486</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>102.0461191870212</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>53.07229059965252</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>34.65370817608887</v>
       </c>
       <c r="S3" t="n">
-        <v>146.8025323210195</v>
+        <v>152.0865355068678</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>195.9122356337554</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8719725097931</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>82.0706339571876</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.1064814349847</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>154.3631818787339</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>152.3898491144619</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.98312400644314</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>73.92213802349769</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>49.38820871369538</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
         <v>45.44580843958667</v>
@@ -1029,10 +1031,10 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>25.06564890952013</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>162.2605966966365</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>105.2484684428774</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>6.980384243200308</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>337.4363195967621</v>
+        <v>191.3279446875561</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7604185579127</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>303.1970280951139</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>73.91063797209171</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>128.2994763485413</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5893483288906</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4482094305798</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>93.93076166082531</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>24.14152012706512</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.478661245542</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>78.24324321589438</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8166907827754</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4020170229342</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.0998528334124</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.8478667271303</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>196.3253180624221</v>
+        <v>118.960917545552</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>33.65980413321387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835124</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>17.18363018800014</v>
+        <v>331.8506886458322</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.5867442799587</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1819,10 +1821,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.2419515106222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>201.6622187863177</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>383.9821873027526</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>36.51120605958027</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>158.1837596300277</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>121.0389903687744</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>66.76195975981727</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>92.60421783198937</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>190.5278853151871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>2.871016166917193</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>149.241951510622</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>104.4828531635483</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>89.25253978832346</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491554</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>321.0272948274813</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>177.7334573767483</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>94.16217815422361</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>60.22224884004309</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>83.13723023285854</v>
       </c>
       <c r="V35" t="n">
-        <v>229.7965692041365</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3436,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958593</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>251.2852794514152</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>160.031755441238</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>62.850128999775</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H41" t="n">
-        <v>147.0290144562265</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>47.59990604631728</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>180.4613721321821</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>209.6931219609827</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>137.999108819008</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192027</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471482</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.251933552693</v>
+        <v>1360.035577681297</v>
       </c>
       <c r="C2" t="n">
-        <v>761.2894166122817</v>
+        <v>1360.035577681297</v>
       </c>
       <c r="D2" t="n">
-        <v>761.2894166122817</v>
+        <v>1001.769879074546</v>
       </c>
       <c r="E2" t="n">
-        <v>761.2894166122817</v>
+        <v>1001.769879074546</v>
       </c>
       <c r="F2" t="n">
-        <v>574.243950779434</v>
+        <v>590.7839742849389</v>
       </c>
       <c r="G2" t="n">
-        <v>157.1561690158616</v>
+        <v>173.27801355656</v>
       </c>
       <c r="H2" t="n">
-        <v>157.1561690158616</v>
+        <v>173.27801355656</v>
       </c>
       <c r="I2" t="n">
-        <v>37.46319841597239</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="J2" t="n">
-        <v>226.1030974297087</v>
+        <v>191.3169796120654</v>
       </c>
       <c r="K2" t="n">
-        <v>308.6662520043011</v>
+        <v>542.6487193942601</v>
       </c>
       <c r="L2" t="n">
-        <v>630.0582894152216</v>
+        <v>803.2413306302407</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.66536981288</v>
+        <v>917.9734047879535</v>
       </c>
       <c r="N2" t="n">
-        <v>1557.272450210538</v>
+        <v>1039.175772233062</v>
       </c>
       <c r="O2" t="n">
-        <v>1727.441475527497</v>
+        <v>1502.78285263072</v>
       </c>
       <c r="P2" t="n">
-        <v>1838.175800777024</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="Q2" t="n">
-        <v>1873.159920798619</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="R2" t="n">
-        <v>1873.159920798619</v>
+        <v>1846.891486400601</v>
       </c>
       <c r="S2" t="n">
-        <v>1873.159920798619</v>
+        <v>1846.891486400601</v>
       </c>
       <c r="T2" t="n">
-        <v>1873.159920798619</v>
+        <v>1846.891486400601</v>
       </c>
       <c r="U2" t="n">
-        <v>1873.159920798619</v>
+        <v>1846.891486400601</v>
       </c>
       <c r="V2" t="n">
-        <v>1873.159920798619</v>
+        <v>1846.891486400601</v>
       </c>
       <c r="W2" t="n">
-        <v>1520.391265528505</v>
+        <v>1494.122831130486</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.391265528505</v>
+        <v>1494.122831130486</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.251933552693</v>
+        <v>1494.122831130486</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>629.8972955883362</v>
+        <v>478.3481619122413</v>
       </c>
       <c r="C3" t="n">
-        <v>629.8972955883362</v>
+        <v>478.3481619122413</v>
       </c>
       <c r="D3" t="n">
-        <v>480.9628859270849</v>
+        <v>478.3481619122413</v>
       </c>
       <c r="E3" t="n">
-        <v>321.7254309216294</v>
+        <v>478.3481619122413</v>
       </c>
       <c r="F3" t="n">
-        <v>321.7254309216294</v>
+        <v>331.8136039391262</v>
       </c>
       <c r="G3" t="n">
-        <v>184.2840332808513</v>
+        <v>194.1484608267539</v>
       </c>
       <c r="H3" t="n">
-        <v>83.3680554256559</v>
+        <v>91.07157275905575</v>
       </c>
       <c r="I3" t="n">
-        <v>37.46319841597239</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="J3" t="n">
-        <v>37.46319841597239</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="K3" t="n">
-        <v>105.0710180793294</v>
+        <v>69.66001785636473</v>
       </c>
       <c r="L3" t="n">
-        <v>242.3006160950234</v>
+        <v>526.4070979338567</v>
       </c>
       <c r="M3" t="n">
-        <v>606.5426764155362</v>
+        <v>990.0141783315152</v>
       </c>
       <c r="N3" t="n">
-        <v>1070.149756813194</v>
+        <v>1453.621258729174</v>
       </c>
       <c r="O3" t="n">
-        <v>1533.756837210853</v>
+        <v>1806.345626071588</v>
       </c>
       <c r="P3" t="n">
-        <v>1642.446464738151</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="Q3" t="n">
-        <v>1873.159920798619</v>
+        <v>1873.15992079862</v>
       </c>
       <c r="R3" t="n">
-        <v>1873.159920798619</v>
+        <v>1838.156175166207</v>
       </c>
       <c r="S3" t="n">
-        <v>1724.874534615771</v>
+        <v>1684.533412027957</v>
       </c>
       <c r="T3" t="n">
-        <v>1527.885238775859</v>
+        <v>1486.642264923153</v>
       </c>
       <c r="U3" t="n">
-        <v>1299.746451287024</v>
+        <v>1258.488757337504</v>
       </c>
       <c r="V3" t="n">
-        <v>1299.746451287024</v>
+        <v>1023.336649105761</v>
       </c>
       <c r="W3" t="n">
-        <v>1045.509094558823</v>
+        <v>769.0992923775596</v>
       </c>
       <c r="X3" t="n">
-        <v>837.6575943532901</v>
+        <v>561.2477921720267</v>
       </c>
       <c r="Y3" t="n">
-        <v>629.8972955883362</v>
+        <v>478.3481619122413</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.0276953818887</v>
+        <v>531.1162129738981</v>
       </c>
       <c r="C4" t="n">
-        <v>312.0915124539819</v>
+        <v>362.1800300459912</v>
       </c>
       <c r="D4" t="n">
-        <v>161.9748730416461</v>
+        <v>362.1800300459912</v>
       </c>
       <c r="E4" t="n">
-        <v>161.9748730416461</v>
+        <v>362.1800300459912</v>
       </c>
       <c r="F4" t="n">
-        <v>161.9748730416461</v>
+        <v>362.1800300459912</v>
       </c>
       <c r="G4" t="n">
-        <v>161.9748730416461</v>
+        <v>193.3856043540874</v>
       </c>
       <c r="H4" t="n">
-        <v>161.9748730416461</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="I4" t="n">
-        <v>37.46319841597239</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="J4" t="n">
-        <v>37.46319841597239</v>
+        <v>37.4631984159724</v>
       </c>
       <c r="K4" t="n">
-        <v>138.5111280115822</v>
+        <v>117.1513526663342</v>
       </c>
       <c r="L4" t="n">
-        <v>323.3441229124006</v>
+        <v>274.6511890384995</v>
       </c>
       <c r="M4" t="n">
-        <v>528.6137236316385</v>
+        <v>451.1018064808899</v>
       </c>
       <c r="N4" t="n">
-        <v>734.4370884677428</v>
+        <v>628.7914390488752</v>
       </c>
       <c r="O4" t="n">
-        <v>908.5319838563416</v>
+        <v>776.900279111346</v>
       </c>
       <c r="P4" t="n">
-        <v>1033.979560454957</v>
+        <v>880.11229614868</v>
       </c>
       <c r="Q4" t="n">
-        <v>1037.397879875317</v>
+        <v>880.11229614868</v>
       </c>
       <c r="R4" t="n">
-        <v>1037.397879875317</v>
+        <v>880.11229614868</v>
       </c>
       <c r="S4" t="n">
-        <v>883.4687393556586</v>
+        <v>880.11229614868</v>
       </c>
       <c r="T4" t="n">
-        <v>883.4687393556586</v>
+        <v>880.11229614868</v>
       </c>
       <c r="U4" t="n">
-        <v>883.4687393556586</v>
+        <v>820.5333830108586</v>
       </c>
       <c r="V4" t="n">
-        <v>883.4687393556586</v>
+        <v>820.5333830108586</v>
       </c>
       <c r="W4" t="n">
-        <v>883.4687393556586</v>
+        <v>531.1162129738981</v>
       </c>
       <c r="X4" t="n">
-        <v>883.4687393556586</v>
+        <v>531.1162129738981</v>
       </c>
       <c r="Y4" t="n">
-        <v>662.6761602121285</v>
+        <v>531.1162129738981</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.2057112555137</v>
+        <v>1314.995805228211</v>
       </c>
       <c r="C5" t="n">
-        <v>940.2057112555137</v>
+        <v>1314.995805228211</v>
       </c>
       <c r="D5" t="n">
-        <v>865.5368849691524</v>
+        <v>1314.995805228211</v>
       </c>
       <c r="E5" t="n">
-        <v>865.5368849691524</v>
+        <v>929.2075526299664</v>
       </c>
       <c r="F5" t="n">
-        <v>454.5509801795449</v>
+        <v>518.2216478403589</v>
       </c>
       <c r="G5" t="n">
-        <v>37.46319841597239</v>
+        <v>101.1338660767863</v>
       </c>
       <c r="H5" t="n">
-        <v>37.46319841597239</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>37.46319841597239</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>58.69744840935569</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>141.260602983948</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>564.2200483226814</v>
+        <v>610.4341993187976</v>
       </c>
       <c r="M5" t="n">
-        <v>750.919461148089</v>
+        <v>1242.152010302109</v>
       </c>
       <c r="N5" t="n">
-        <v>945.2536740400714</v>
+        <v>1869.459678361956</v>
       </c>
       <c r="O5" t="n">
-        <v>1408.86075443773</v>
+        <v>2416.620883129033</v>
       </c>
       <c r="P5" t="n">
-        <v>1838.175800777024</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
-        <v>1873.159920798619</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R5" t="n">
-        <v>1873.159920798619</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>1716.944883295447</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>1716.944883295447</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>1716.944883295447</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="V5" t="n">
-        <v>1716.944883295447</v>
+        <v>2075.061403553412</v>
       </c>
       <c r="W5" t="n">
-        <v>1716.944883295447</v>
+        <v>2075.061403553412</v>
       </c>
       <c r="X5" t="n">
-        <v>1716.944883295447</v>
+        <v>1701.595645292332</v>
       </c>
       <c r="Y5" t="n">
-        <v>1326.805551319635</v>
+        <v>1701.595645292332</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>849.9689049873826</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C6" t="n">
-        <v>675.5158757062557</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D6" t="n">
-        <v>526.5814660450044</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E6" t="n">
-        <v>367.3440110395489</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F6" t="n">
-        <v>220.8094530664339</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G6" t="n">
-        <v>83.3680554256559</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>83.3680554256559</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
-        <v>37.46319841597239</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>156.122450272868</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>223.7302699362251</v>
+        <v>248.1607499648565</v>
       </c>
       <c r="L6" t="n">
-        <v>680.8123055812847</v>
+        <v>752.5222898309751</v>
       </c>
       <c r="M6" t="n">
-        <v>860.3096419358895</v>
+        <v>932.0196261855799</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.966383588554</v>
+        <v>1566.198609964618</v>
       </c>
       <c r="O6" t="n">
-        <v>1218.478696257315</v>
+        <v>2115.634618717341</v>
       </c>
       <c r="P6" t="n">
-        <v>1642.446464738151</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
-        <v>1873.159920798619</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>1852.048021200806</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>1702.581232063441</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>1505.591936223529</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>1480.273098941185</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1480.273098941185</v>
+        <v>1802.732963713365</v>
       </c>
       <c r="W6" t="n">
-        <v>1226.035742212983</v>
+        <v>1548.495606985163</v>
       </c>
       <c r="X6" t="n">
-        <v>1018.184242007451</v>
+        <v>1340.644106779631</v>
       </c>
       <c r="Y6" t="n">
-        <v>1018.184242007451</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9568359015473</v>
+        <v>58.29767974295291</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0206529736404</v>
+        <v>58.29767974295291</v>
       </c>
       <c r="D7" t="n">
-        <v>315.9040135613046</v>
+        <v>58.29767974295291</v>
       </c>
       <c r="E7" t="n">
-        <v>209.5924292755699</v>
+        <v>58.29767974295291</v>
       </c>
       <c r="F7" t="n">
-        <v>209.5924292755699</v>
+        <v>58.29767974295291</v>
       </c>
       <c r="G7" t="n">
-        <v>209.5924292755699</v>
+        <v>58.29767974295291</v>
       </c>
       <c r="H7" t="n">
-        <v>55.337786175335</v>
+        <v>58.29767974295291</v>
       </c>
       <c r="I7" t="n">
-        <v>55.337786175335</v>
+        <v>58.29767974295291</v>
       </c>
       <c r="J7" t="n">
-        <v>37.46319841597239</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
-        <v>138.5111280115822</v>
+        <v>152.2947161636129</v>
       </c>
       <c r="L7" t="n">
-        <v>323.3441229124006</v>
+        <v>337.1277110644313</v>
       </c>
       <c r="M7" t="n">
-        <v>528.6137236316385</v>
+        <v>542.3973117836692</v>
       </c>
       <c r="N7" t="n">
-        <v>734.4370884677428</v>
+        <v>748.2206766197735</v>
       </c>
       <c r="O7" t="n">
-        <v>908.5319838563416</v>
+        <v>922.3155720083723</v>
       </c>
       <c r="P7" t="n">
-        <v>1033.979560454957</v>
+        <v>1047.763148606988</v>
       </c>
       <c r="Q7" t="n">
-        <v>1037.397879875317</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1037.397879875317</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>1037.397879875317</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>1037.397879875317</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>1037.397879875317</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>1037.397879875317</v>
+        <v>796.496979821461</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.397879875317</v>
+        <v>507.0798097845004</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.397879875317</v>
+        <v>279.090258886483</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.605300731787</v>
+        <v>58.29767974295291</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1963.689051977065</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="C8" t="n">
-        <v>1594.726535036653</v>
+        <v>1441.630784989314</v>
       </c>
       <c r="D8" t="n">
-        <v>1594.726535036653</v>
+        <v>1441.630784989314</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.881767767196</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>842.8958629775889</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>426.9762482726264</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>120.7166239341275</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0594138613076</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4673630394822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>392.6687030091747</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>712.6744060423329</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.411846608726</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1499.03709270933</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>1862.112347673518</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2137.487676883597</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2296.110334236719</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2302.97069306538</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2173.375262410288</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>1963.689051977065</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1963.689051977065</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1963.689051977065</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>1963.689051977065</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>1963.689051977065</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="Y8" t="n">
-        <v>1963.689051977065</v>
+        <v>1810.593301929725</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>784.7656120702223</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>610.3125827890954</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3781731278441</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1407181223886</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1407181223886</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3243449601868</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>70.44478772702995</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>46.0594138613076</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>209.0292076042505</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>375.556311722905</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>645.7950950866582</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>980.5078771044764</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1338.488155409087</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1643.750377734976</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2184.695298254674</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2285.628367733995</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2302.97069306538</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2165.113459484024</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2086.07988047807</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>1857.982213020721</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1622.830104788979</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1368.592748060777</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1160.741247855244</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>952.9809490902903</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>977.5939337024059</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C10" t="n">
-        <v>808.657750774499</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>658.5411113621633</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>510.6280177797702</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>363.7380702818598</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>195.6552248041484</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>46.0594138613076</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>46.0594138613076</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>64.85006629616983</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>225.565717220577</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>486.7528525448032</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>772.5271887000703</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1056.941066300466</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1303.627020469984</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1491.188788348593</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1537.611754182064</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1430.694717083952</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1232.386315000698</v>
+        <v>1413.700170614775</v>
       </c>
       <c r="T10" t="n">
-        <v>1232.386315000698</v>
+        <v>1190.72168980951</v>
       </c>
       <c r="U10" t="n">
-        <v>1232.386315000698</v>
+        <v>901.6033523133477</v>
       </c>
       <c r="V10" t="n">
-        <v>1232.386315000698</v>
+        <v>646.9188641074609</v>
       </c>
       <c r="W10" t="n">
-        <v>1232.386315000698</v>
+        <v>646.9188641074609</v>
       </c>
       <c r="X10" t="n">
-        <v>1198.386512845936</v>
+        <v>418.9293132094435</v>
       </c>
       <c r="Y10" t="n">
-        <v>977.5939337024059</v>
+        <v>198.1367340659135</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5042,7 +5044,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5053,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1664.678443125552</v>
+        <v>1865.035106955551</v>
       </c>
       <c r="C14" t="n">
-        <v>1295.71592618514</v>
+        <v>1496.072590015139</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.278283189673</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2051.278283189673</v>
+        <v>2251.634947019672</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5351,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5367,16 +5369,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="D16" t="n">
         <v>772.5608581015648</v>
@@ -5431,7 +5433,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5467,19 +5469,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W16" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>880.2242361621292</v>
       </c>
     </row>
     <row r="17">
@@ -5510,52 +5512,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609169</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="Y17" t="n">
         <v>2731.767278738087</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.3964936596652</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4603107317583</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3436713194226</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1735.608663915319</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>1575.827088531452</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X19" t="n">
-        <v>1347.837537633435</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y19" t="n">
-        <v>1127.044958489905</v>
+        <v>1031.168009380941</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3093.053546703159</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2839.523069976995</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2839.523069976995</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2839.523069976995</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2466.057311715915</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y20" t="n">
-        <v>2075.917979740103</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1931.789305875496</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="C22" t="n">
-        <v>1762.853122947589</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="D22" t="n">
-        <v>1612.736483535253</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.82338995286</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.82338995286</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.82338995286</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193523</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>3044.089480193523</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>3044.089480193523</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V22" t="n">
-        <v>2851.637070784243</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W22" t="n">
-        <v>2562.219900747283</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X22" t="n">
-        <v>2334.230349849266</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y22" t="n">
-        <v>2113.437770705736</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2883.99303492678</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3763.957685256235</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3942.370854773037</v>
+        <v>3307.702102225119</v>
       </c>
       <c r="C25" t="n">
-        <v>3773.43467184513</v>
+        <v>3307.702102225119</v>
       </c>
       <c r="D25" t="n">
-        <v>3623.318032432794</v>
+        <v>3307.702102225119</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.404938850401</v>
+        <v>3307.702102225119</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352491</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G25" t="n">
         <v>3160.812154727209</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945067</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.051722419721</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T25" t="n">
-        <v>4778.051722419721</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U25" t="n">
-        <v>4778.051722419721</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="V25" t="n">
-        <v>4778.051722419721</v>
+        <v>3820.811867735829</v>
       </c>
       <c r="W25" t="n">
-        <v>4572.801449644823</v>
+        <v>3531.394697698868</v>
       </c>
       <c r="X25" t="n">
-        <v>4344.811898746806</v>
+        <v>3528.494681368649</v>
       </c>
       <c r="Y25" t="n">
-        <v>4124.019319603276</v>
+        <v>3307.702102225119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6230,22 +6232,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1172.647446689876</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6415,19 +6417,19 @@
         <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1302.311063288258</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1302.311063288258</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1302.311063288258</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1302.311063288258</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2126.390504905117</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>1757.427987964705</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1399.162289357955</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1013.37403675971</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>602.3881319701029</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>187.3156818150994</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>270.6565772553891</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>604.4759509452355</v>
       </c>
       <c r="L29" t="n">
-        <v>1732.058578925876</v>
+        <v>1426.519148088362</v>
       </c>
       <c r="M29" t="n">
-        <v>2265.590483597801</v>
+        <v>1960.051052760287</v>
       </c>
       <c r="N29" t="n">
-        <v>2812.369300656583</v>
+        <v>2506.829869819069</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986038</v>
+        <v>3386.794520148524</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>3781.568886505701</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4029.855248261384</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4088.872314818186</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4088.872314818186</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>3882.894567202408</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>3629.364090476245</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3629.364090476245</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3276.59543520613</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>2903.129676945051</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2512.990344969239</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>956.8091843452891</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>782.3561550641621</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>633.4217454029108</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>474.1842903974552</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>327.6497324243402</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089896</v>
+        <v>191.2866322569583</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468573</v>
+        <v>100.7847378948258</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>175.454715786981</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>413.7189147673281</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>780.4170750799942</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1227.69340030231</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1701.216443856764</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2112.177723274819</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2422.677314750922</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2580.318872397522</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2580.174518990037</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2450.736632483517</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2258.093632161373</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2030.025785295788</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1794.873677064045</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1540.636320335844</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1332.784820130311</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1125.024521365357</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.6351384500838</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="C31" t="n">
-        <v>499.6351384500838</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="D31" t="n">
-        <v>499.6351384500838</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="E31" t="n">
-        <v>499.6351384500838</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>126.9000787432992</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>330.8872616921756</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>647.4470601406717</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>991.6041057402207</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1333.012482446085</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1632.342081366499</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1864.949581800158</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1942.559877952673</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1852.729420710201</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1661.043536537027</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1545.412566285355</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1256.309699410999</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1001.625211205112</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783409</v>
+        <v>712.2080411681509</v>
       </c>
       <c r="X31" t="n">
-        <v>681.2836032803235</v>
+        <v>484.2184902701335</v>
       </c>
       <c r="Y31" t="n">
-        <v>681.2836032803235</v>
+        <v>263.4259111266034</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2323.62324248431</v>
+        <v>2269.630313158375</v>
       </c>
       <c r="C32" t="n">
-        <v>1954.660725543898</v>
+        <v>1900.667796217964</v>
       </c>
       <c r="D32" t="n">
-        <v>1596.395026937147</v>
+        <v>1542.402097611213</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.606774338903</v>
+        <v>1156.613845012969</v>
       </c>
       <c r="F32" t="n">
-        <v>799.6208695492955</v>
+        <v>745.6279402233615</v>
       </c>
       <c r="G32" t="n">
-        <v>384.548419394292</v>
+        <v>421.3579454481278</v>
       </c>
       <c r="H32" t="n">
-        <v>86.96481900305922</v>
+        <v>123.774345056895</v>
       </c>
       <c r="I32" t="n">
-        <v>86.96481900305922</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="J32" t="n">
-        <v>443.2495989824376</v>
+        <v>270.6565772553891</v>
       </c>
       <c r="K32" t="n">
-        <v>1018.01393210752</v>
+        <v>604.4759509452355</v>
       </c>
       <c r="L32" t="n">
-        <v>1469.048145355929</v>
+        <v>1055.510164193644</v>
       </c>
       <c r="M32" t="n">
-        <v>2002.580050027853</v>
+        <v>2034.060467023472</v>
       </c>
       <c r="N32" t="n">
-        <v>2549.358867086635</v>
+        <v>2883.822049269187</v>
       </c>
       <c r="O32" t="n">
-        <v>3052.331337965972</v>
+        <v>3386.794520148524</v>
       </c>
       <c r="P32" t="n">
-        <v>3765.686425412918</v>
+        <v>3781.568886505701</v>
       </c>
       <c r="Q32" t="n">
-        <v>4224.164627921906</v>
+        <v>4029.855248261384</v>
       </c>
       <c r="R32" t="n">
-        <v>4348.240950152961</v>
+        <v>4088.872314818186</v>
       </c>
       <c r="S32" t="n">
-        <v>4237.950281680056</v>
+        <v>3978.581646345281</v>
       </c>
       <c r="T32" t="n">
-        <v>4058.421536855058</v>
+        <v>3772.603898729503</v>
       </c>
       <c r="U32" t="n">
-        <v>3804.891060128894</v>
+        <v>3772.603898729503</v>
       </c>
       <c r="V32" t="n">
-        <v>3473.828172785323</v>
+        <v>3772.603898729503</v>
       </c>
       <c r="W32" t="n">
-        <v>3473.828172785323</v>
+        <v>3419.835243459389</v>
       </c>
       <c r="X32" t="n">
-        <v>3100.362414524243</v>
+        <v>3046.369485198309</v>
       </c>
       <c r="Y32" t="n">
-        <v>2710.223082548432</v>
+        <v>2656.230153222497</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>961.9965570519845</v>
+        <v>956.8091843452891</v>
       </c>
       <c r="C33" t="n">
-        <v>787.5435277708575</v>
+        <v>782.3561550641621</v>
       </c>
       <c r="D33" t="n">
-        <v>638.6091181096062</v>
+        <v>633.4217454029108</v>
       </c>
       <c r="E33" t="n">
-        <v>479.3716631041507</v>
+        <v>474.1842903974552</v>
       </c>
       <c r="F33" t="n">
-        <v>332.8371051310357</v>
+        <v>327.6497324243402</v>
       </c>
       <c r="G33" t="n">
-        <v>196.4740049636538</v>
+        <v>191.2866322569583</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9721106015213</v>
+        <v>100.7847378948258</v>
       </c>
       <c r="I33" t="n">
-        <v>86.96481900305922</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="J33" t="n">
-        <v>180.6420884936765</v>
+        <v>175.454715786981</v>
       </c>
       <c r="K33" t="n">
-        <v>418.9062874740236</v>
+        <v>413.7189147673281</v>
       </c>
       <c r="L33" t="n">
-        <v>785.6044477866889</v>
+        <v>780.4170750799933</v>
       </c>
       <c r="M33" t="n">
-        <v>1232.880773009005</v>
+        <v>1227.693400302309</v>
       </c>
       <c r="N33" t="n">
-        <v>1706.403816563459</v>
+        <v>1701.216443856764</v>
       </c>
       <c r="O33" t="n">
-        <v>2117.365095981514</v>
+        <v>2112.177723274818</v>
       </c>
       <c r="P33" t="n">
-        <v>2427.864687457617</v>
+        <v>2422.677314750922</v>
       </c>
       <c r="Q33" t="n">
-        <v>2585.506245104217</v>
+        <v>2580.318872397522</v>
       </c>
       <c r="R33" t="n">
-        <v>2585.361891696732</v>
+        <v>2580.174518990037</v>
       </c>
       <c r="S33" t="n">
-        <v>2455.924005190212</v>
+        <v>2450.736632483517</v>
       </c>
       <c r="T33" t="n">
-        <v>2263.281004868068</v>
+        <v>2258.093632161373</v>
       </c>
       <c r="U33" t="n">
-        <v>2035.213158002483</v>
+        <v>2030.025785295788</v>
       </c>
       <c r="V33" t="n">
-        <v>1800.061049770741</v>
+        <v>1794.873677064045</v>
       </c>
       <c r="W33" t="n">
-        <v>1545.823693042539</v>
+        <v>1540.636320335844</v>
       </c>
       <c r="X33" t="n">
-        <v>1337.972192837006</v>
+        <v>1332.784820130311</v>
       </c>
       <c r="Y33" t="n">
-        <v>1130.211894072052</v>
+        <v>1125.024521365357</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>773.2149975447333</v>
+        <v>548.7433622189994</v>
       </c>
       <c r="C34" t="n">
-        <v>773.2149975447333</v>
+        <v>379.8071792910926</v>
       </c>
       <c r="D34" t="n">
-        <v>623.0983581323975</v>
+        <v>229.6905398787569</v>
       </c>
       <c r="E34" t="n">
-        <v>475.1852645500044</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="F34" t="n">
-        <v>328.295317052094</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="G34" t="n">
-        <v>233.1820057852015</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="H34" t="n">
-        <v>86.96481900305922</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="I34" t="n">
-        <v>86.96481900305922</v>
+        <v>81.77744629636372</v>
       </c>
       <c r="J34" t="n">
-        <v>132.0874514499947</v>
+        <v>126.9000787432992</v>
       </c>
       <c r="K34" t="n">
-        <v>336.0746343988711</v>
+        <v>330.8872616921756</v>
       </c>
       <c r="L34" t="n">
-        <v>652.6344328473672</v>
+        <v>647.4470601406717</v>
       </c>
       <c r="M34" t="n">
-        <v>996.7914784469161</v>
+        <v>991.6041057402207</v>
       </c>
       <c r="N34" t="n">
-        <v>1338.199855152781</v>
+        <v>1333.012482446085</v>
       </c>
       <c r="O34" t="n">
-        <v>1637.529454073194</v>
+        <v>1632.342081366499</v>
       </c>
       <c r="P34" t="n">
-        <v>1870.136954506853</v>
+        <v>1864.949581800158</v>
       </c>
       <c r="Q34" t="n">
-        <v>1947.747250659368</v>
+        <v>1942.559877952673</v>
       </c>
       <c r="R34" t="n">
-        <v>1947.747250659368</v>
+        <v>1942.559877952673</v>
       </c>
       <c r="S34" t="n">
-        <v>1947.747250659368</v>
+        <v>1750.873993779499</v>
       </c>
       <c r="T34" t="n">
-        <v>1947.747250659368</v>
+        <v>1529.107378349025</v>
       </c>
       <c r="U34" t="n">
-        <v>1947.747250659368</v>
+        <v>1240.004511474669</v>
       </c>
       <c r="V34" t="n">
-        <v>1693.062762453481</v>
+        <v>1240.004511474669</v>
       </c>
       <c r="W34" t="n">
-        <v>1403.64559241652</v>
+        <v>1179.173957090787</v>
       </c>
       <c r="X34" t="n">
-        <v>1175.656041518503</v>
+        <v>951.1844061927693</v>
       </c>
       <c r="Y34" t="n">
-        <v>954.863462374973</v>
+        <v>730.3918270492392</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1091.323932370578</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>722.3614154301667</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2925.360405285277</v>
       </c>
       <c r="V35" t="n">
-        <v>3093.488074938325</v>
+        <v>2594.297517941706</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>2241.528862671592</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>1868.063104410512</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>1477.9237724347</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G37" t="n">
         <v>310.0549803959803</v>
@@ -7090,7 +7092,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7132,13 +7134,13 @@
         <v>1927.294548088492</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>731.3215358191801</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>320.3356310295725</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7190,7 +7192,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7208,16 +7210,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3163.957583789738</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W38" t="n">
-        <v>2811.188928519624</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X38" t="n">
-        <v>2437.723170258544</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y38" t="n">
-        <v>2047.583838282732</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>590.8070661251686</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C40" t="n">
-        <v>590.8070661251686</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
-        <v>590.8070661251686</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>590.8070661251686</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>443.9171186272582</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>276.2142820019772</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>129.9970952198349</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7357,25 +7359,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621292</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251686</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X40" t="n">
-        <v>590.8070661251686</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y40" t="n">
-        <v>590.8070661251686</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2196.097994299123</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.135477358711</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>1468.86977875196</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E41" t="n">
-        <v>1083.081526153716</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F41" t="n">
-        <v>672.0956213641086</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G41" t="n">
-        <v>257.0231712091051</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7412,16 +7414,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7451,10 +7453,10 @@
         <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2972.837166339056</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>2582.697834363245</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>214.4252100145765</v>
+        <v>431.4421061205817</v>
       </c>
       <c r="C43" t="n">
-        <v>214.4252100145765</v>
+        <v>262.5059231926748</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>262.5059231926748</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>114.5928296102817</v>
       </c>
       <c r="F43" t="n">
         <v>66.51211643218342</v>
@@ -7603,16 +7605,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>952.6245100930846</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W43" t="n">
-        <v>663.2073400561239</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X43" t="n">
-        <v>435.2177891581066</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.4252100145765</v>
+        <v>431.4421061205817</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1559.116588708439</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C44" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218339</v>
@@ -7649,10 +7651,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7664,7 +7666,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052367</v>
@@ -7679,19 +7681,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919558</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y44" t="n">
-        <v>1559.116588708439</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218339</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218339</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218339</v>
@@ -7810,19 +7812,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088492</v>
@@ -7831,25 +7833,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>1530.147236421175</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>183.9024056259265</v>
+        <v>187.820703051856</v>
       </c>
       <c r="M2" t="n">
-        <v>279.704714719445</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>271.9927954602787</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>366.1559423850478</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.369542477570832</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>27.16085514498295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.610832288796</v>
+        <v>343.1046189771736</v>
       </c>
       <c r="N3" t="n">
-        <v>267.6266047929228</v>
+        <v>325.2371481826995</v>
       </c>
       <c r="O3" t="n">
-        <v>307.1664320493915</v>
+        <v>247.866083657969</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>5.308696774518637</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8221,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>286.4957469671516</v>
+        <v>319.2538912541067</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>296.4020758390897</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>130.6122663974711</v>
       </c>
       <c r="L6" t="n">
-        <v>323.0832703326926</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.9214566933067</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.3885629748224</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>186.4490126143847</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
-        <v>315.1679217109336</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>104.3976710547484</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>176.2173930448433</v>
+        <v>374.7565493886042</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>243.3787469042789</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>306.0431971585172</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>296.7574771839105</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.4994114326828</v>
+        <v>22.83235297485078</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.02872873825365</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.34270184147255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23785,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>168.0688818921513</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.25575135330098</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>143.320774122357</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>128.3392387065633</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>82.87897977084573</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>302.9691409186518</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>56.01125518622298</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>61.60975800864094</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>222.83863922212</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>136.9698866949909</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>190.1249112237722</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>56.16850823460778</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>89.89443082597211</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>26.18451276287189</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>71.86363010480461</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25123,19 +25125,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>226.3007494965479</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>167.8579417260434</v>
       </c>
       <c r="V35" t="n">
-        <v>97.95568926599836</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.32522828944229</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>159.6364462020382</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>167.7205030288969</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.50229141006312</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>172.2573809594894</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H41" t="n">
-        <v>147.578749931094</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>97.82114197661397</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>71.67627119164592</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>139.5478467564303</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>248.2388298370456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696654</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>83.32522828944278</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>943146.6683032119</v>
+        <v>957501.1784833964</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>943146.6683032119</v>
+        <v>966035.0821845563</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>915527.905874228</v>
+        <v>916391.4507170253</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756903.0013511613</v>
+        <v>756903.0013511612</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756903.0013511608</v>
+        <v>756903.0013511613</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>911762.2036082848</v>
+        <v>911762.2036082846</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>911762.2036082846</v>
+        <v>838282.1702289681</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>865935.9506114577</v>
+        <v>838282.1702289683</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756903.001351161</v>
+        <v>756903.0013511612</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756903.0013511609</v>
+        <v>756903.001351161</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
+        <v>443296.2286621968</v>
+      </c>
+      <c r="F2" t="n">
         <v>443296.2286621967</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>443296.2286621968</v>
       </c>
-      <c r="G2" t="n">
-        <v>443296.2286621967</v>
-      </c>
       <c r="H2" t="n">
-        <v>443296.2286621968</v>
+        <v>443296.2286621969</v>
       </c>
       <c r="I2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="J2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530783</v>
+        <v>481610.7930517441</v>
       </c>
       <c r="L2" t="n">
-        <v>494630.6181948369</v>
+        <v>481610.793051744</v>
       </c>
       <c r="M2" t="n">
         <v>443296.2286621967</v>
       </c>
       <c r="N2" t="n">
-        <v>443296.2286621969</v>
+        <v>443296.228662197</v>
       </c>
       <c r="O2" t="n">
-        <v>443296.2286621967</v>
+        <v>443296.2286621968</v>
       </c>
       <c r="P2" t="n">
         <v>443296.2286621967</v>
@@ -26363,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728816.0285095129</v>
+        <v>629581.4298479845</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149438.8466014897</v>
       </c>
       <c r="D3" t="n">
-        <v>279747.5614757468</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>243943.9262385066</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736069</v>
+        <v>96558.96659736036</v>
       </c>
       <c r="J3" t="n">
-        <v>122525.2635793585</v>
+        <v>122525.2635793586</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221859.3035745303</v>
+        <v>242284.6722436857</v>
       </c>
       <c r="C4" t="n">
-        <v>221859.3035745303</v>
+        <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>152063.0693771294</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7330.627242042255</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="F4" t="n">
-        <v>7330.627242042255</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="G4" t="n">
-        <v>7330.62724204226</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="H4" t="n">
-        <v>7330.627242042255</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="I4" t="n">
-        <v>38975.18638660162</v>
+        <v>38975.18638660158</v>
       </c>
       <c r="J4" t="n">
-        <v>38975.18638660158</v>
+        <v>38975.18638660161</v>
       </c>
       <c r="K4" t="n">
-        <v>38975.18638660157</v>
+        <v>23959.97754964005</v>
       </c>
       <c r="L4" t="n">
-        <v>29610.86349073748</v>
+        <v>23959.97754964006</v>
       </c>
       <c r="M4" t="n">
-        <v>7330.627242042255</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="N4" t="n">
         <v>7330.627242042245</v>
       </c>
       <c r="O4" t="n">
-        <v>7330.627242042255</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="P4" t="n">
-        <v>7330.627242042255</v>
+        <v>7330.627242042245</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75037.40978350883</v>
+        <v>72792.40660191901</v>
       </c>
       <c r="C5" t="n">
-        <v>75037.40978350883</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
-        <v>87841.86465987121</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26494,13 +26496,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>85907.99125817032</v>
       </c>
       <c r="L5" t="n">
-        <v>89850.3945152589</v>
+        <v>85907.99125817032</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-492035.5914557673</v>
+        <v>-410981.3582818049</v>
       </c>
       <c r="C6" t="n">
-        <v>236780.4370537453</v>
+        <v>100412.7323710904</v>
       </c>
       <c r="D6" t="n">
-        <v>14024.65489903686</v>
+        <v>15940.50490216826</v>
       </c>
       <c r="E6" t="n">
-        <v>117715.3346202546</v>
+        <v>179586.2810415709</v>
       </c>
       <c r="F6" t="n">
         <v>361659.2608587613</v>
@@ -26537,28 +26539,28 @@
         <v>361659.2608587611</v>
       </c>
       <c r="H6" t="n">
-        <v>361659.2608587613</v>
+        <v>361659.2608587614</v>
       </c>
       <c r="I6" t="n">
-        <v>284288.6517154023</v>
+        <v>284288.6517154025</v>
       </c>
       <c r="J6" t="n">
-        <v>258322.3547334045</v>
+        <v>258322.3547334043</v>
       </c>
       <c r="K6" t="n">
-        <v>380847.6183127631</v>
+        <v>371742.8242439337</v>
       </c>
       <c r="L6" t="n">
-        <v>375169.3601888406</v>
+        <v>371742.8242439336</v>
       </c>
       <c r="M6" t="n">
-        <v>361659.2608587611</v>
+        <v>361659.2608587612</v>
       </c>
       <c r="N6" t="n">
         <v>361659.2608587614</v>
       </c>
       <c r="O6" t="n">
-        <v>361659.2608587611</v>
+        <v>361659.2608587613</v>
       </c>
       <c r="P6" t="n">
         <v>361659.2608587611</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>490.4943030174307</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>881.1518406090565</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>468.2899801996548</v>
+        <v>468.289980199655</v>
       </c>
       <c r="C4" t="n">
-        <v>468.2899801996548</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>575.7426732663449</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26814,13 +26816,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="K4" t="n">
-        <v>1194.51293060493</v>
+        <v>1022.218078704547</v>
       </c>
       <c r="L4" t="n">
-        <v>1087.06023753824</v>
+        <v>1022.218078704547</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380651</v>
+        <v>490.4943030174307</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>102.9817973206344</v>
       </c>
       <c r="D3" t="n">
-        <v>287.6757402709915</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>208.6248599842415</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>468.2899801996548</v>
+        <v>468.289980199655</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>172.2948519003837</v>
       </c>
       <c r="D4" t="n">
-        <v>107.4526930666901</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>255.6587821359477</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.111475202638</v>
+        <v>363.1114752026374</v>
       </c>
       <c r="J4" t="n">
-        <v>468.2899801996548</v>
+        <v>468.2899801996552</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>468.2899801996548</v>
+        <v>468.289980199655</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>172.2948519003837</v>
       </c>
       <c r="L4" t="n">
-        <v>107.4526930666901</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>255.6587821359477</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>249.9874607487829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>221.7010345671923</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>319.2807326453058</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>164.0868477570606</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>214.4641357492216</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1879059963133</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.169588924972032</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>123.6120618201168</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>128.8512101013294</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>30.82517692705707</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12.09740349606236</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>137.5231483816906</v>
       </c>
       <c r="S4" t="n">
-        <v>52.97603278565671</v>
+        <v>208.6022114978835</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>224.1663710279832</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>227.2876600087673</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>280.7609035971852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>265.6526753615202</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27673,16 +27675,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,10 +27751,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>200.7917507044257</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>70.53999045278877</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>41.18549420369182</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27791,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10.71545763856868</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49405047549965</v>
+        <v>190.6024253847056</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0622673912587</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27941,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>114.282065275911</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>107.6660439643934</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>75.70154281618544</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1563867219494</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2323586836441</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>192.0498512558233</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38583356919825</v>
+        <v>1.971836394039921</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055158</v>
+        <v>20.19406947046134</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651562</v>
+        <v>76.01922258122413</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>167.3571491486459</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>250.8249837083558</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712531</v>
+        <v>311.1705717524551</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074825</v>
+        <v>346.2372172249625</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>351.8396973795284</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822519</v>
+        <v>332.232249236294</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426701</v>
+        <v>283.5525382584334</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457577</v>
+        <v>212.9361473968787</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>123.8633678871103</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810517</v>
+        <v>44.93322182918475</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>8.631713814909759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1577469115231936</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.055025481962021</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>10.18932504947531</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182841</v>
+        <v>36.32434225176256</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>99.67677152168375</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070429</v>
+        <v>170.3634788131391</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>229.0747214233765</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842454</v>
+        <v>267.3193951444997</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>274.3945441002889</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>251.0174005262883</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671574</v>
+        <v>201.4635940072915</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>134.6730773115029</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080804</v>
+        <v>65.50412597655426</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>19.59663559696998</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>4.252493061066214</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.06940957118171193</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>0.8844979234740552</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207016</v>
+        <v>7.863990628705697</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784131</v>
+        <v>26.59926482592887</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490379</v>
+        <v>62.5340031896157</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>102.7625769272584</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889954</v>
+        <v>131.5007185499518</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>138.6490699496648</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>135.3523049621708</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>125.0197610379511</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>106.9760033990802</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104783</v>
+        <v>74.06463975563203</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>39.77024299547887</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>15.41438653908876</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522795</v>
+        <v>3.779218400298235</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.04824534128040307</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.542318957222335</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>36.27777402065325</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>136.5652515983142</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>300.6498935955494</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>450.5962550547709</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>559.0044988418641</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>622.0002135973668</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>632.0648273345748</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>596.8408932036951</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>509.3898939472687</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>382.5305962917437</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>222.5151931966177</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>80.72059323770404</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>15.50650123524078</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2833855165777868</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.895307732630801</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>18.30468257567116</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>65.25511272434996</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>179.0650169675442</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>306.0506350538079</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>411.5228478240693</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>480.2277531319357</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>492.9379527950608</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>450.9419235615046</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>361.92064940035</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>241.9343695196791</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>117.6753344873756</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>35.20450985829577</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>7.639420203016251</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1246912981993948</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.588962335524528</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.12731967402718</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>47.78443096286491</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>112.3396371215841</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>184.6085331636679</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>236.235363956074</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>249.0770686495403</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>243.1545726716764</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>224.5926035703216</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>192.177771925621</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.0539279319675</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>71.44552465003922</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>27.69127997455017</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>6.789202706332072</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08667067284679254</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32087,7 +32089,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33041,7 +33043,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138804</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,7 +33508,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33515,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33980,10 +33982,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.5453525391276</v>
+        <v>155.4078597940334</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>354.88054523454</v>
       </c>
       <c r="L2" t="n">
-        <v>324.6384216271924</v>
+        <v>263.2248598343239</v>
       </c>
       <c r="M2" t="n">
-        <v>468.2899801996548</v>
+        <v>115.8909839976898</v>
       </c>
       <c r="N2" t="n">
-        <v>468.2899801996548</v>
+        <v>122.4266337829375</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605652</v>
+        <v>468.289980199655</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>374.1182506746465</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>32.52203983878013</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>461.3606869469615</v>
       </c>
       <c r="M3" t="n">
-        <v>367.9212730510231</v>
+        <v>468.289980199655</v>
       </c>
       <c r="N3" t="n">
-        <v>468.2899801996548</v>
+        <v>468.289980199655</v>
       </c>
       <c r="O3" t="n">
-        <v>468.2899801996548</v>
+        <v>356.2872397398129</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>67.48918659296126</v>
       </c>
       <c r="Q3" t="n">
-        <v>233.0438950105733</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>80.49308510137554</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>159.090743810268</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>178.2329469115054</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>179.4844773413994</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>149.6048889519907</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>104.2545626639737</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,19 +34941,19 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>427.2317629684175</v>
+        <v>459.9899072553726</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>468.2899801996548</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>198.9029933301549</v>
       </c>
       <c r="L6" t="n">
-        <v>461.6990259041007</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6039890688631</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>230.5064040097904</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>323.2380838718769</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>391.6539803700941</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>402.6517637379839</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>366.7426817820084</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>278.1568981919992</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>160.2249064172942</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>6.929655382485578</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>164.6159532756999</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>168.2091960794489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>272.9684680441952</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>338.0937192099174</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>361.5962407117275</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>308.3456791170602</v>
+        <v>521.8736946105078</v>
       </c>
       <c r="P9" t="n">
-        <v>546.409010625957</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>101.9525954336576</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>17.51750033473243</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.98045700491134</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>162.339041337785</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>263.8253892163901</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>288.6609456113809</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>287.286745050905</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>249.1777314843612</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>189.4563311905145</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.89188468027315</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35735,7 +35737,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
@@ -36370,16 +36372,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
-        <v>713.9299079303053</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36598,7 +36600,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>559.9877854470803</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
         <v>988.434649323059</v>
@@ -36607,7 +36609,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36616,7 +36618,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>631.8075074371754</v>
+        <v>830.3466637809362</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340062</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>580.5700334596793</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>858.3450325714284</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37306,7 +37308,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554011</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37385,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37558,13 +37560,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
